--- a/data/trans_camb/P16B18-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16B18-Provincia-trans_camb.xlsx
@@ -526,7 +526,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuyos medicamentos anticonceptivos fueron recetados</t>
+          <t>Mujeres menores de 55 años cuyos anticonceptivos consumidos fueron recetados por el médico</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_camb/P16B18-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16B18-Provincia-trans_camb.xlsx
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-66.93724614770588</v>
+        <v>-66.93231825967901</v>
       </c>
     </row>
     <row r="6">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>31.71982187733448</v>
+        <v>31.26921114922774</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>10.88340917043536</v>
+        <v>10.37258264537222</v>
       </c>
     </row>
     <row r="7">
@@ -628,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.6754941457867929</v>
+        <v>-0.66932318259679</v>
       </c>
     </row>
     <row r="9">
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.4644935766232259</v>
+        <v>0.4549468537415619</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.12508372452866</v>
+        <v>0.119887852604749</v>
       </c>
     </row>
     <row r="10">
@@ -671,10 +671,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.5982188356955364</v>
+        <v>-0.8568752229521939</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>7.130968153952638</v>
+        <v>6.197954083015087</v>
       </c>
     </row>
     <row r="12">
@@ -685,10 +685,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>30.25459273305377</v>
+        <v>30.08066608171979</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>36.00651928679544</v>
+        <v>34.73241112048527</v>
       </c>
     </row>
     <row r="13">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.003080476827941655</v>
+        <v>-0.000480002307236771</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.07681580532707613</v>
+        <v>0.06607426712566219</v>
       </c>
     </row>
     <row r="15">
@@ -727,10 +727,10 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.4787332915096068</v>
+        <v>0.4374162126311144</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.5626529125382375</v>
+        <v>0.5322205396903439</v>
       </c>
     </row>
     <row r="16">
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-12.88740522198821</v>
+        <v>-12.33107790713709</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>0</v>
@@ -845,10 +845,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.647245951877135</v>
+        <v>7.651042518503637</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>16.7778215291945</v>
+        <v>19.15770471669098</v>
       </c>
     </row>
     <row r="25">
@@ -873,7 +873,7 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1343796657090263</v>
+        <v>-0.1247101468139654</v>
       </c>
       <c r="D26" s="6" t="n">
         <v>0</v>
@@ -887,10 +887,10 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.08270275614279148</v>
+        <v>0.08366355534418773</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.2020186270658319</v>
+        <v>0.2369767835427906</v>
       </c>
     </row>
     <row r="28">
@@ -920,7 +920,7 @@
       </c>
       <c r="C29" s="5" t="inlineStr"/>
       <c r="D29" s="5" t="n">
-        <v>-34.65715872430138</v>
+        <v>-29.37546358576557</v>
       </c>
     </row>
     <row r="30">
@@ -958,7 +958,7 @@
       </c>
       <c r="C32" s="6" t="inlineStr"/>
       <c r="D32" s="6" t="n">
-        <v>-0.3465715872430137</v>
+        <v>-0.2937546358576557</v>
       </c>
     </row>
     <row r="33">
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-48.30505497426214</v>
+        <v>-51.8530071206665</v>
       </c>
     </row>
     <row r="36">
@@ -1013,10 +1013,10 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>19.20187819429076</v>
+        <v>18.40617751341383</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>8.225243235397432</v>
+        <v>8.233490054351055</v>
       </c>
     </row>
     <row r="37">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.5341787182736826</v>
+        <v>-0.5413847792878889</v>
       </c>
     </row>
     <row r="39">
@@ -1055,10 +1055,10 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.2382804291220049</v>
+        <v>0.2262624447721162</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.08957838691352529</v>
+        <v>0.08959018805353716</v>
       </c>
     </row>
     <row r="40">
@@ -1090,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-13.15147862354175</v>
+        <v>-12.50970514026369</v>
       </c>
     </row>
     <row r="42">
@@ -1101,10 +1101,10 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>18.85874407969987</v>
+        <v>18.53156557893976</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>5.865609638762611</v>
+        <v>6.037240389408965</v>
       </c>
     </row>
     <row r="43">
@@ -1132,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.1326850339523856</v>
+        <v>-0.1287763125394817</v>
       </c>
     </row>
     <row r="45">
@@ -1143,10 +1143,10 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.2329302822273845</v>
+        <v>0.2274690397376004</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.0629884337652423</v>
+        <v>0.06434378525903839</v>
       </c>
     </row>
     <row r="46">
@@ -1175,10 +1175,10 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>0.06420865056267894</v>
+        <v>0.5872854809069094</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>2.24977757968303</v>
+        <v>3.011828158493937</v>
       </c>
     </row>
     <row r="48">
@@ -1189,10 +1189,10 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>23.87286994190876</v>
+        <v>23.86837290496949</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>25.64114771231841</v>
+        <v>25.68475311339339</v>
       </c>
     </row>
     <row r="49">
@@ -1217,10 +1217,10 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.001436104872401235</v>
+        <v>0.01469948105357503</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.0333046337048887</v>
+        <v>0.03474619880375732</v>
       </c>
     </row>
     <row r="51">
@@ -1231,10 +1231,10 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.3212955119829271</v>
+        <v>0.3243657700184025</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.3600536401175414</v>
+        <v>0.3501121565785048</v>
       </c>
     </row>
     <row r="52">
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>3.030035867110544</v>
+        <v>2.789137202985916</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-1.18392637953252</v>
+        <v>-0.8047290529406609</v>
       </c>
     </row>
     <row r="54">
@@ -1277,10 +1277,10 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>11.41912633442246</v>
+        <v>11.2566271078905</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>8.875416893746745</v>
+        <v>9.501640312600527</v>
       </c>
     </row>
     <row r="55">
@@ -1305,10 +1305,10 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.03203091363943743</v>
+        <v>0.02969446995021246</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.01224515540507144</v>
+        <v>-0.007485365068241677</v>
       </c>
     </row>
     <row r="57">
@@ -1319,10 +1319,10 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.1317199189379091</v>
+        <v>0.1292091098865709</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.1010066260154654</v>
+        <v>0.108149825823928</v>
       </c>
     </row>
     <row r="58">
